--- a/public/Visitantes.xlsx
+++ b/public/Visitantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Santiago\argon\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2A62D3-DB58-4142-B6F7-D1E69FD8667F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018515E0-7405-48A5-8B72-6C16DB61B47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1860" windowWidth="15375" windowHeight="7875" xr2:uid="{BEB8C200-78E4-4A9D-9AC8-AA4BB1DFE386}"/>
+    <workbookView xWindow="-28920" yWindow="-2205" windowWidth="29040" windowHeight="15840" xr2:uid="{BEB8C200-78E4-4A9D-9AC8-AA4BB1DFE386}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>tipoDocumento</t>
   </si>
   <si>
-    <t>cedula</t>
-  </si>
-  <si>
     <t>nombres</t>
   </si>
   <si>
@@ -53,28 +50,25 @@
     <t>celular</t>
   </si>
   <si>
-    <t>sexo</t>
-  </si>
-  <si>
     <t>tiposervicioId</t>
   </si>
   <si>
     <t>tratDatos</t>
   </si>
   <si>
-    <t>fechaNacimiento</t>
-  </si>
-  <si>
     <t>fechaInicio</t>
   </si>
   <si>
     <t>fechaFin</t>
   </si>
   <si>
-    <t>cursoId</t>
-  </si>
-  <si>
     <t>empresaNit</t>
+  </si>
+  <si>
+    <t>documento</t>
+  </si>
+  <si>
+    <t>eventoId</t>
   </si>
 </sst>
 </file>
@@ -110,9 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,57 +422,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A8168F-52B8-42A5-AB92-3B0ABDB1826D}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;"Calibri"&amp;12&amp;KFF8C00 CONFIDENTIAL &amp; RESTRICTED&amp;1#_x000D_</oddHeader>
+  </headerFooter>
 </worksheet>
 </file>